--- a/感興趣標的匯入範例.xlsx
+++ b/感興趣標的匯入範例.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tk_tsai\.gemini\antigravity\scratch\股票工具\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tk_tsai\.gemini\antigravity\scratch\股票工具\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6048CDCC-77D4-4B55-A4BB-7847B11ADE5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E222B9-DB50-4886-8B86-2E8204C53405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
